--- a/My 3D RPG/Assets/StaticData/Excel/Item.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Item.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>itmeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>affectingStats</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,31 +70,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>currentHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentMana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용시 Mana 50을 회복합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용시 Hp를 50을 회복합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Item/HpPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Item/ManaPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Expendables</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentMana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용시 Mana 50을 회복합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용시 Hp를 50을 회복합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Item/HpPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Item/ManaPotion</t>
+  </si>
+  <si>
+    <t>itemType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +447,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -468,42 +467,42 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -511,19 +510,19 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -534,19 +533,19 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <v>50</v>

--- a/My 3D RPG/Assets/StaticData/Excel/Item.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Item.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -66,22 +66,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파란포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>currentHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>currentMana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용시 Mana 50을 회복합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용시 Hp를 50을 회복합니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,14 +78,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Item/ManaPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Expendables</t>
   </si>
   <si>
     <t>itemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용시 Energy 50을 회복합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Item/EnergyPotion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,16 +447,17 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="29.25" customWidth="1"/>
-    <col min="6" max="6" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -467,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -513,16 +514,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -533,19 +534,19 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>50</v>

--- a/My 3D RPG/Assets/StaticData/Excel/Item.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Item.xlsx
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Item/HpPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Expendables</t>
   </si>
   <si>
@@ -97,7 +93,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Item/EnergyPotion</t>
+    <t>Hp_Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy_Potion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -514,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -523,7 +523,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -534,16 +534,16 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>

--- a/My 3D RPG/Assets/StaticData/Excel/Item.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Item.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,14 @@
   </si>
   <si>
     <t>Energy_Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -456,11 +464,11 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
-    <col min="6" max="6" width="26.375" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="6" max="7" width="26.375" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,10 +488,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -503,10 +514,13 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -526,10 +540,13 @@
         <v>19</v>
       </c>
       <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -549,6 +566,9 @@
         <v>20</v>
       </c>
       <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4">
         <v>50</v>
       </c>
     </row>

--- a/My 3D RPG/Assets/StaticData/Excel/Item.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Item.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -93,19 +93,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hp_Potion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy_Potion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Item/Hp_Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Item/Energy_Potion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +455,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -488,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -537,7 +537,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -563,7 +563,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>200</v>
